--- a/www/IndicatorsPerCountry/Italy_GoldStandard_TerritorialRef_1946_2012_CCode_380.xlsx
+++ b/www/IndicatorsPerCountry/Italy_GoldStandard_TerritorialRef_1946_2012_CCode_380.xlsx
@@ -69,13 +69,13 @@
     <t>Reinhart, Carmen M. and Kenneth S. Rogoff (2015). Gold Standard. http://hdl.handle.net/10622/MX7AIJ, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_MX7AIJ.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_MX7AIJ.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_MX7AIJ.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_MX7AIJ.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_MX7AIJ.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_MX7AIJ.bib</t>
   </si>
 </sst>
 </file>
